--- a/NEW_alignment/FT269NOM_pro.xlsx
+++ b/NEW_alignment/FT269NOM_pro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\OneDrive\ドキュメント\git\Ryohei.W\loc\NEW_alignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\Documents\TMR観察\NEW_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB7D1C-16C6-4128-ACE1-B8D3E311A646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94C847-5F34-48FB-8F61-0097E4BC1367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98AC8370-6BC3-4FD4-8542-21C3282EB744}"/>
   </bookViews>
@@ -32,23 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7260" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7281" uniqueCount="41">
   <si>
     <t>&gt;4F2_HUMAN</t>
   </si>
@@ -577,13 +566,14 @@
   <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK27" sqref="AK27"/>
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="33" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.4">
@@ -689,6 +679,9 @@
       <c r="AH1">
         <v>199</v>
       </c>
+      <c r="AI1">
+        <v>200</v>
+      </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B2">
@@ -888,7 +881,12 @@
       <c r="AG3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -990,7 +988,12 @@
       <c r="AG4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -1092,7 +1095,12 @@
       <c r="AG5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -1194,7 +1202,12 @@
       <c r="AG6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -1406,7 +1419,9 @@
       <c r="AH8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI8" s="2"/>
+      <c r="AI8" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -1508,7 +1523,12 @@
       <c r="AG9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH9" s="2"/>
+      <c r="AH9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -1610,7 +1630,12 @@
       <c r="AG10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -1712,7 +1737,12 @@
       <c r="AG11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH11" s="2"/>
+      <c r="AH11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -1814,7 +1844,12 @@
       <c r="AG12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH12" s="2"/>
+      <c r="AH12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -1916,7 +1951,12 @@
       <c r="AG13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -2018,7 +2058,12 @@
       <c r="AG14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
@@ -11415,7 +11460,7 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13236,6 +13281,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13244,7 +13290,7 @@
   <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A18"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18855,7 +18901,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
